--- a/docs/junio18/final/COMEXANE_BD_Junio18.xlsx
+++ b/docs/junio18/final/COMEXANE_BD_Junio18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yellowhat\proyectos\comexane\docs\junio18\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0156C2-BF0B-48C9-8821-1B621D2E7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17DB328-EAD3-4355-A9C7-43AE6059848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16436493-E78D-4D25-852A-074680406309}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16436493-E78D-4D25-852A-074680406309}"/>
   </bookViews>
   <sheets>
     <sheet name="DB1" sheetId="1" r:id="rId1"/>
@@ -7492,8 +7492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31D231-B3C5-44E5-AA38-7E94654F2B2F}">
   <dimension ref="A1:D906"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A873" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C875" sqref="C875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7528,7 +7528,7 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <f>LEN(C2)</f>
+        <f t="shared" ref="D2:D65" si="0">LEN(C2)</f>
         <v>46</v>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <f>LEN(C3)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
         <v>246</v>
       </c>
       <c r="D4">
-        <f>LEN(C4)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
         <v>246</v>
       </c>
       <c r="D5">
-        <f>LEN(C5)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <f>LEN(C6)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
         <v>273</v>
       </c>
       <c r="D7">
-        <f>LEN(C7)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7618,7 +7618,7 @@
         <v>346</v>
       </c>
       <c r="D8">
-        <f>LEN(C8)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <f>LEN(C9)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
         <v>273</v>
       </c>
       <c r="D10">
-        <f>LEN(C10)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
         <v>346</v>
       </c>
       <c r="D11">
-        <f>LEN(C11)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
         <v>138</v>
       </c>
       <c r="D12">
-        <f>LEN(C12)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
         <v>244</v>
       </c>
       <c r="D13">
-        <f>LEN(C13)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
         <v>327</v>
       </c>
       <c r="D14">
-        <f>LEN(C14)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
         <v>328</v>
       </c>
       <c r="D15">
-        <f>LEN(C15)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
         <v>329</v>
       </c>
       <c r="D16">
-        <f>LEN(C16)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
         <v>330</v>
       </c>
       <c r="D17">
-        <f>LEN(C17)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
         <v>331</v>
       </c>
       <c r="D18">
-        <f>LEN(C18)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
         <v>138</v>
       </c>
       <c r="D19">
-        <f>LEN(C19)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
         <v>244</v>
       </c>
       <c r="D20">
-        <f>LEN(C20)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
         <v>327</v>
       </c>
       <c r="D21">
-        <f>LEN(C21)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
         <v>328</v>
       </c>
       <c r="D22">
-        <f>LEN(C22)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
         <v>329</v>
       </c>
       <c r="D23">
-        <f>LEN(C23)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
         <v>330</v>
       </c>
       <c r="D24">
-        <f>LEN(C24)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
         <v>331</v>
       </c>
       <c r="D25">
-        <f>LEN(C25)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
         <v>132</v>
       </c>
       <c r="D26">
-        <f>LEN(C26)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
         <v>218</v>
       </c>
       <c r="D27">
-        <f>LEN(C27)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
         <v>239</v>
       </c>
       <c r="D28">
-        <f>LEN(C28)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
         <v>289</v>
       </c>
       <c r="D29">
-        <f>LEN(C29)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
         <v>290</v>
       </c>
       <c r="D30">
-        <f>LEN(C30)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v>318</v>
       </c>
       <c r="D31">
-        <f>LEN(C31)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
         <v>325</v>
       </c>
       <c r="D32">
-        <f>LEN(C32)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
         <v>402</v>
       </c>
       <c r="D33">
-        <f>LEN(C33)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
         <v>132</v>
       </c>
       <c r="D34">
-        <f>LEN(C34)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>218</v>
       </c>
       <c r="D35">
-        <f>LEN(C35)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
         <v>239</v>
       </c>
       <c r="D36">
-        <f>LEN(C36)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
         <v>289</v>
       </c>
       <c r="D37">
-        <f>LEN(C37)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
         <v>290</v>
       </c>
       <c r="D38">
-        <f>LEN(C38)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
         <v>318</v>
       </c>
       <c r="D39">
-        <f>LEN(C39)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
         <v>325</v>
       </c>
       <c r="D40">
-        <f>LEN(C40)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
         <v>402</v>
       </c>
       <c r="D41">
-        <f>LEN(C41)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
         <v>92</v>
       </c>
       <c r="D42">
-        <f>LEN(C42)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
         <v>268</v>
       </c>
       <c r="D43">
-        <f>LEN(C43)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
         <v>280</v>
       </c>
       <c r="D44">
-        <f>LEN(C44)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
         <v>297</v>
       </c>
       <c r="D45">
-        <f>LEN(C45)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
         <v>333</v>
       </c>
       <c r="D46">
-        <f>LEN(C46)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
         <v>358</v>
       </c>
       <c r="D47">
-        <f>LEN(C47)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>363</v>
       </c>
       <c r="D48">
-        <f>LEN(C48)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8233,7 +8233,7 @@
         <v>389</v>
       </c>
       <c r="D49">
-        <f>LEN(C49)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>410</v>
       </c>
       <c r="D50">
-        <f>LEN(C50)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
         <v>92</v>
       </c>
       <c r="D51">
-        <f>LEN(C51)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
         <v>268</v>
       </c>
       <c r="D52">
-        <f>LEN(C52)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
         <v>280</v>
       </c>
       <c r="D53">
-        <f>LEN(C53)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
         <v>297</v>
       </c>
       <c r="D54">
-        <f>LEN(C54)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
         <v>333</v>
       </c>
       <c r="D55">
-        <f>LEN(C55)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
         <v>358</v>
       </c>
       <c r="D56">
-        <f>LEN(C56)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
         <v>363</v>
       </c>
       <c r="D57">
-        <f>LEN(C57)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
         <v>389</v>
       </c>
       <c r="D58">
-        <f>LEN(C58)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
         <v>410</v>
       </c>
       <c r="D59">
-        <f>LEN(C59)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
         <v>450</v>
       </c>
       <c r="D60">
-        <f>LEN(C60)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8413,7 +8413,7 @@
         <v>450</v>
       </c>
       <c r="D61">
-        <f>LEN(C61)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
         <v>78</v>
       </c>
       <c r="D62">
-        <f>LEN(C62)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
         <v>95</v>
       </c>
       <c r="D63">
-        <f>LEN(C63)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
         <v>135</v>
       </c>
       <c r="D64">
-        <f>LEN(C64)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
         <v>238</v>
       </c>
       <c r="D65">
-        <f>LEN(C65)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
         <v>242</v>
       </c>
       <c r="D66">
-        <f>LEN(C66)</f>
+        <f t="shared" ref="D66:D129" si="1">LEN(C66)</f>
         <v>37</v>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
         <v>284</v>
       </c>
       <c r="D67">
-        <f>LEN(C67)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
         <v>301</v>
       </c>
       <c r="D68">
-        <f>LEN(C68)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
         <v>305</v>
       </c>
       <c r="D69">
-        <f>LEN(C69)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8548,7 +8548,7 @@
         <v>322</v>
       </c>
       <c r="D70">
-        <f>LEN(C70)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
         <v>326</v>
       </c>
       <c r="D71">
-        <f>LEN(C71)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
         <v>335</v>
       </c>
       <c r="D72">
-        <f>LEN(C72)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <f>LEN(C73)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
         <v>95</v>
       </c>
       <c r="D74">
-        <f>LEN(C74)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
         <v>135</v>
       </c>
       <c r="D75">
-        <f>LEN(C75)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
         <v>238</v>
       </c>
       <c r="D76">
-        <f>LEN(C76)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
         <v>242</v>
       </c>
       <c r="D77">
-        <f>LEN(C77)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
         <v>284</v>
       </c>
       <c r="D78">
-        <f>LEN(C78)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
         <v>301</v>
       </c>
       <c r="D79">
-        <f>LEN(C79)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
         <v>305</v>
       </c>
       <c r="D80">
-        <f>LEN(C80)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
         <v>322</v>
       </c>
       <c r="D81">
-        <f>LEN(C81)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
         <v>326</v>
       </c>
       <c r="D82">
-        <f>LEN(C82)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
         <v>335</v>
       </c>
       <c r="D83">
-        <f>LEN(C83)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
         <v>28</v>
       </c>
       <c r="D84">
-        <f>LEN(C84)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
         <v>29</v>
       </c>
       <c r="D85">
-        <f>LEN(C85)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         <v>44</v>
       </c>
       <c r="D86">
-        <f>LEN(C86)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
         <v>49</v>
       </c>
       <c r="D87">
-        <f>LEN(C87)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8818,7 +8818,7 @@
         <v>88</v>
       </c>
       <c r="D88">
-        <f>LEN(C88)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
         <v>94</v>
       </c>
       <c r="D89">
-        <f>LEN(C89)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
         <v>150</v>
       </c>
       <c r="D90">
-        <f>LEN(C90)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
         <v>174</v>
       </c>
       <c r="D91">
-        <f>LEN(C91)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <f>LEN(C92)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
         <v>195</v>
       </c>
       <c r="D93">
-        <f>LEN(C93)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
         <v>255</v>
       </c>
       <c r="D94">
-        <f>LEN(C94)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
         <v>302</v>
       </c>
       <c r="D95">
-        <f>LEN(C95)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
         <v>334</v>
       </c>
       <c r="D96">
-        <f>LEN(C96)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
         <v>350</v>
       </c>
       <c r="D97">
-        <f>LEN(C97)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
         <v>388</v>
       </c>
       <c r="D98">
-        <f>LEN(C98)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
         <v>427</v>
       </c>
       <c r="D99">
-        <f>LEN(C99)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
         <v>429</v>
       </c>
       <c r="D100">
-        <f>LEN(C100)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="D101">
-        <f>LEN(C101)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
         <v>29</v>
       </c>
       <c r="D102">
-        <f>LEN(C102)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
         <v>44</v>
       </c>
       <c r="D103">
-        <f>LEN(C103)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
         <v>49</v>
       </c>
       <c r="D104">
-        <f>LEN(C104)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
         <v>88</v>
       </c>
       <c r="D105">
-        <f>LEN(C105)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
         <v>94</v>
       </c>
       <c r="D106">
-        <f>LEN(C106)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
         <v>150</v>
       </c>
       <c r="D107">
-        <f>LEN(C107)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9118,7 +9118,7 @@
         <v>174</v>
       </c>
       <c r="D108">
-        <f>LEN(C108)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
         <v>187</v>
       </c>
       <c r="D109">
-        <f>LEN(C109)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
         <v>195</v>
       </c>
       <c r="D110">
-        <f>LEN(C110)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
         <v>255</v>
       </c>
       <c r="D111">
-        <f>LEN(C111)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>302</v>
       </c>
       <c r="D112">
-        <f>LEN(C112)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
         <v>334</v>
       </c>
       <c r="D113">
-        <f>LEN(C113)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
         <v>350</v>
       </c>
       <c r="D114">
-        <f>LEN(C114)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
         <v>388</v>
       </c>
       <c r="D115">
-        <f>LEN(C115)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
         <v>427</v>
       </c>
       <c r="D116">
-        <f>LEN(C116)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
         <v>429</v>
       </c>
       <c r="D117">
-        <f>LEN(C117)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>447</v>
       </c>
       <c r="D118">
-        <f>LEN(C118)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
         <v>447</v>
       </c>
       <c r="D119">
-        <f>LEN(C119)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
         <v>66</v>
       </c>
       <c r="D120">
-        <f>LEN(C120)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
         <v>73</v>
       </c>
       <c r="D121">
-        <f>LEN(C121)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
         <v>108</v>
       </c>
       <c r="D122">
-        <f>LEN(C122)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
         <v>111</v>
       </c>
       <c r="D123">
-        <f>LEN(C123)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
         <v>140</v>
       </c>
       <c r="D124">
-        <f>LEN(C124)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
         <v>172</v>
       </c>
       <c r="D125">
-        <f>LEN(C125)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9388,7 +9388,7 @@
         <v>197</v>
       </c>
       <c r="D126">
-        <f>LEN(C126)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
         <v>260</v>
       </c>
       <c r="D127">
-        <f>LEN(C127)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
         <v>263</v>
       </c>
       <c r="D128">
-        <f>LEN(C128)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
         <v>281</v>
       </c>
       <c r="D129">
-        <f>LEN(C129)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
         <v>286</v>
       </c>
       <c r="D130">
-        <f>LEN(C130)</f>
+        <f t="shared" ref="D130:D193" si="2">LEN(C130)</f>
         <v>35</v>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
         <v>309</v>
       </c>
       <c r="D131">
-        <f>LEN(C131)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
         <v>319</v>
       </c>
       <c r="D132">
-        <f>LEN(C132)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
         <v>336</v>
       </c>
       <c r="D133">
-        <f>LEN(C133)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
         <v>351</v>
       </c>
       <c r="D134">
-        <f>LEN(C134)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9523,7 +9523,7 @@
         <v>395</v>
       </c>
       <c r="D135">
-        <f>LEN(C135)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9538,7 +9538,7 @@
         <v>401</v>
       </c>
       <c r="D136">
-        <f>LEN(C136)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
         <v>66</v>
       </c>
       <c r="D137">
-        <f>LEN(C137)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
         <v>73</v>
       </c>
       <c r="D138">
-        <f>LEN(C138)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
         <v>108</v>
       </c>
       <c r="D139">
-        <f>LEN(C139)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
         <v>111</v>
       </c>
       <c r="D140">
-        <f>LEN(C140)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <f>LEN(C141)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9628,7 +9628,7 @@
         <v>172</v>
       </c>
       <c r="D142">
-        <f>LEN(C142)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
         <v>197</v>
       </c>
       <c r="D143">
-        <f>LEN(C143)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
         <v>260</v>
       </c>
       <c r="D144">
-        <f>LEN(C144)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
         <v>263</v>
       </c>
       <c r="D145">
-        <f>LEN(C145)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>281</v>
       </c>
       <c r="D146">
-        <f>LEN(C146)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
         <v>286</v>
       </c>
       <c r="D147">
-        <f>LEN(C147)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
         <v>309</v>
       </c>
       <c r="D148">
-        <f>LEN(C148)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
         <v>319</v>
       </c>
       <c r="D149">
-        <f>LEN(C149)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
         <v>336</v>
       </c>
       <c r="D150">
-        <f>LEN(C150)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9763,7 +9763,7 @@
         <v>351</v>
       </c>
       <c r="D151">
-        <f>LEN(C151)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
         <v>395</v>
       </c>
       <c r="D152">
-        <f>LEN(C152)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9793,7 +9793,7 @@
         <v>401</v>
       </c>
       <c r="D153">
-        <f>LEN(C153)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
         <v>10</v>
       </c>
       <c r="D154">
-        <f>LEN(C154)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
         <v>20</v>
       </c>
       <c r="D155">
-        <f>LEN(C155)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
         <v>42</v>
       </c>
       <c r="D156">
-        <f>LEN(C156)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
         <v>56</v>
       </c>
       <c r="D157">
-        <f>LEN(C157)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
         <v>65</v>
       </c>
       <c r="D158">
-        <f>LEN(C158)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
         <v>71</v>
       </c>
       <c r="D159">
-        <f>LEN(C159)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
         <v>79</v>
       </c>
       <c r="D160">
-        <f>LEN(C160)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
         <v>106</v>
       </c>
       <c r="D161">
-        <f>LEN(C161)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
         <v>109</v>
       </c>
       <c r="D162">
-        <f>LEN(C162)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
         <v>145</v>
       </c>
       <c r="D163">
-        <f>LEN(C163)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
         <v>215</v>
       </c>
       <c r="D164">
-        <f>LEN(C164)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
         <v>235</v>
       </c>
       <c r="D165">
-        <f>LEN(C165)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
         <v>247</v>
       </c>
       <c r="D166">
-        <f>LEN(C166)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
         <v>249</v>
       </c>
       <c r="D167">
-        <f>LEN(C167)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10018,7 +10018,7 @@
         <v>259</v>
       </c>
       <c r="D168">
-        <f>LEN(C168)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
         <v>277</v>
       </c>
       <c r="D169">
-        <f>LEN(C169)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
         <v>283</v>
       </c>
       <c r="D170">
-        <f>LEN(C170)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
         <v>291</v>
       </c>
       <c r="D171">
-        <f>LEN(C171)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
         <v>299</v>
       </c>
       <c r="D172">
-        <f>LEN(C172)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
         <v>300</v>
       </c>
       <c r="D173">
-        <f>LEN(C173)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
         <v>332</v>
       </c>
       <c r="D174">
-        <f>LEN(C174)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
         <v>360</v>
       </c>
       <c r="D175">
-        <f>LEN(C175)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
         <v>361</v>
       </c>
       <c r="D176">
-        <f>LEN(C176)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
         <v>378</v>
       </c>
       <c r="D177">
-        <f>LEN(C177)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <f>LEN(C178)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
         <v>20</v>
       </c>
       <c r="D179">
-        <f>LEN(C179)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
         <v>42</v>
       </c>
       <c r="D180">
-        <f>LEN(C180)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
         <v>56</v>
       </c>
       <c r="D181">
-        <f>LEN(C181)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
         <v>65</v>
       </c>
       <c r="D182">
-        <f>LEN(C182)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
         <v>71</v>
       </c>
       <c r="D183">
-        <f>LEN(C183)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
         <v>79</v>
       </c>
       <c r="D184">
-        <f>LEN(C184)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
         <v>106</v>
       </c>
       <c r="D185">
-        <f>LEN(C185)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
         <v>109</v>
       </c>
       <c r="D186">
-        <f>LEN(C186)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10303,7 +10303,7 @@
         <v>145</v>
       </c>
       <c r="D187">
-        <f>LEN(C187)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
         <v>215</v>
       </c>
       <c r="D188">
-        <f>LEN(C188)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
         <v>235</v>
       </c>
       <c r="D189">
-        <f>LEN(C189)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
         <v>247</v>
       </c>
       <c r="D190">
-        <f>LEN(C190)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10363,7 +10363,7 @@
         <v>249</v>
       </c>
       <c r="D191">
-        <f>LEN(C191)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10378,7 +10378,7 @@
         <v>259</v>
       </c>
       <c r="D192">
-        <f>LEN(C192)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
         <v>277</v>
       </c>
       <c r="D193">
-        <f>LEN(C193)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
         <v>283</v>
       </c>
       <c r="D194">
-        <f>LEN(C194)</f>
+        <f t="shared" ref="D194:D257" si="3">LEN(C194)</f>
         <v>34</v>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
         <v>291</v>
       </c>
       <c r="D195">
-        <f>LEN(C195)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>299</v>
       </c>
       <c r="D196">
-        <f>LEN(C196)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10453,7 +10453,7 @@
         <v>300</v>
       </c>
       <c r="D197">
-        <f>LEN(C197)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
         <v>332</v>
       </c>
       <c r="D198">
-        <f>LEN(C198)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
         <v>360</v>
       </c>
       <c r="D199">
-        <f>LEN(C199)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
         <v>361</v>
       </c>
       <c r="D200">
-        <f>LEN(C200)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
         <v>378</v>
       </c>
       <c r="D201">
-        <f>LEN(C201)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
         <v>14</v>
       </c>
       <c r="D202">
-        <f>LEN(C202)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
         <v>36</v>
       </c>
       <c r="D203">
-        <f>LEN(C203)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
         <v>80</v>
       </c>
       <c r="D204">
-        <f>LEN(C204)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
         <v>105</v>
       </c>
       <c r="D205">
-        <f>LEN(C205)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
         <v>107</v>
       </c>
       <c r="D206">
-        <f>LEN(C206)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
         <v>110</v>
       </c>
       <c r="D207">
-        <f>LEN(C207)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10618,7 +10618,7 @@
         <v>116</v>
       </c>
       <c r="D208">
-        <f>LEN(C208)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10633,7 +10633,7 @@
         <v>128</v>
       </c>
       <c r="D209">
-        <f>LEN(C209)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
         <v>167</v>
       </c>
       <c r="D210">
-        <f>LEN(C210)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10663,7 +10663,7 @@
         <v>185</v>
       </c>
       <c r="D211">
-        <f>LEN(C211)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
         <v>208</v>
       </c>
       <c r="D212">
-        <f>LEN(C212)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
         <v>211</v>
       </c>
       <c r="D213">
-        <f>LEN(C213)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
         <v>233</v>
       </c>
       <c r="D214">
-        <f>LEN(C214)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
         <v>251</v>
       </c>
       <c r="D215">
-        <f>LEN(C215)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
         <v>266</v>
       </c>
       <c r="D216">
-        <f>LEN(C216)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
         <v>293</v>
       </c>
       <c r="D217">
-        <f>LEN(C217)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v>296</v>
       </c>
       <c r="D218">
-        <f>LEN(C218)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
         <v>314</v>
       </c>
       <c r="D219">
-        <f>LEN(C219)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
         <v>357</v>
       </c>
       <c r="D220">
-        <f>LEN(C220)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
         <v>417</v>
       </c>
       <c r="D221">
-        <f>LEN(C221)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
         <v>420</v>
       </c>
       <c r="D222">
-        <f>LEN(C222)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
         <v>422</v>
       </c>
       <c r="D223">
-        <f>LEN(C223)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
         <v>14</v>
       </c>
       <c r="D224">
-        <f>LEN(C224)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
         <v>36</v>
       </c>
       <c r="D225">
-        <f>LEN(C225)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
         <v>80</v>
       </c>
       <c r="D226">
-        <f>LEN(C226)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
         <v>105</v>
       </c>
       <c r="D227">
-        <f>LEN(C227)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
         <v>107</v>
       </c>
       <c r="D228">
-        <f>LEN(C228)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
         <v>110</v>
       </c>
       <c r="D229">
-        <f>LEN(C229)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
         <v>116</v>
       </c>
       <c r="D230">
-        <f>LEN(C230)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
         <v>128</v>
       </c>
       <c r="D231">
-        <f>LEN(C231)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
         <v>167</v>
       </c>
       <c r="D232">
-        <f>LEN(C232)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
         <v>185</v>
       </c>
       <c r="D233">
-        <f>LEN(C233)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
         <v>208</v>
       </c>
       <c r="D234">
-        <f>LEN(C234)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11023,7 +11023,7 @@
         <v>211</v>
       </c>
       <c r="D235">
-        <f>LEN(C235)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
         <v>233</v>
       </c>
       <c r="D236">
-        <f>LEN(C236)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
         <v>251</v>
       </c>
       <c r="D237">
-        <f>LEN(C237)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
         <v>266</v>
       </c>
       <c r="D238">
-        <f>LEN(C238)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11083,7 +11083,7 @@
         <v>293</v>
       </c>
       <c r="D239">
-        <f>LEN(C239)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11098,7 +11098,7 @@
         <v>296</v>
       </c>
       <c r="D240">
-        <f>LEN(C240)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
         <v>314</v>
       </c>
       <c r="D241">
-        <f>LEN(C241)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
         <v>357</v>
       </c>
       <c r="D242">
-        <f>LEN(C242)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
         <v>417</v>
       </c>
       <c r="D243">
-        <f>LEN(C243)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
         <v>420</v>
       </c>
       <c r="D244">
-        <f>LEN(C244)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
         <v>422</v>
       </c>
       <c r="D245">
-        <f>LEN(C245)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D246">
-        <f>LEN(C246)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11203,7 +11203,7 @@
         <v>32</v>
       </c>
       <c r="D247">
-        <f>LEN(C247)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
         <v>62</v>
       </c>
       <c r="D248">
-        <f>LEN(C248)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
         <v>64</v>
       </c>
       <c r="D249">
-        <f>LEN(C249)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
         <v>87</v>
       </c>
       <c r="D250">
-        <f>LEN(C250)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11263,7 +11263,7 @@
         <v>100</v>
       </c>
       <c r="D251">
-        <f>LEN(C251)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
         <v>101</v>
       </c>
       <c r="D252">
-        <f>LEN(C252)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11293,7 +11293,7 @@
         <v>119</v>
       </c>
       <c r="D253">
-        <f>LEN(C253)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
         <v>122</v>
       </c>
       <c r="D254">
-        <f>LEN(C254)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
         <v>137</v>
       </c>
       <c r="D255">
-        <f>LEN(C255)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
         <v>139</v>
       </c>
       <c r="D256">
-        <f>LEN(C256)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
         <v>141</v>
       </c>
       <c r="D257">
-        <f>LEN(C257)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
         <v>148</v>
       </c>
       <c r="D258">
-        <f>LEN(C258)</f>
+        <f t="shared" ref="D258:D321" si="4">LEN(C258)</f>
         <v>32</v>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
         <v>183</v>
       </c>
       <c r="D259">
-        <f>LEN(C259)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11398,7 +11398,7 @@
         <v>194</v>
       </c>
       <c r="D260">
-        <f>LEN(C260)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
         <v>227</v>
       </c>
       <c r="D261">
-        <f>LEN(C261)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
         <v>237</v>
       </c>
       <c r="D262">
-        <f>LEN(C262)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11443,7 +11443,7 @@
         <v>262</v>
       </c>
       <c r="D263">
-        <f>LEN(C263)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
         <v>264</v>
       </c>
       <c r="D264">
-        <f>LEN(C264)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
         <v>270</v>
       </c>
       <c r="D265">
-        <f>LEN(C265)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
         <v>292</v>
       </c>
       <c r="D266">
-        <f>LEN(C266)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
         <v>295</v>
       </c>
       <c r="D267">
-        <f>LEN(C267)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
         <v>304</v>
       </c>
       <c r="D268">
-        <f>LEN(C268)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
         <v>323</v>
       </c>
       <c r="D269">
-        <f>LEN(C269)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
         <v>347</v>
       </c>
       <c r="D270">
-        <f>LEN(C270)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
         <v>352</v>
       </c>
       <c r="D271">
-        <f>LEN(C271)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
         <v>375</v>
       </c>
       <c r="D272">
-        <f>LEN(C272)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
         <v>383</v>
       </c>
       <c r="D273">
-        <f>LEN(C273)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
         <v>436</v>
       </c>
       <c r="D274">
-        <f>LEN(C274)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
         <v>24</v>
       </c>
       <c r="D275">
-        <f>LEN(C275)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
         <v>32</v>
       </c>
       <c r="D276">
-        <f>LEN(C276)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
         <v>62</v>
       </c>
       <c r="D277">
-        <f>LEN(C277)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11668,7 +11668,7 @@
         <v>64</v>
       </c>
       <c r="D278">
-        <f>LEN(C278)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
         <v>87</v>
       </c>
       <c r="D279">
-        <f>LEN(C279)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
         <v>100</v>
       </c>
       <c r="D280">
-        <f>LEN(C280)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
         <v>101</v>
       </c>
       <c r="D281">
-        <f>LEN(C281)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
         <v>119</v>
       </c>
       <c r="D282">
-        <f>LEN(C282)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
         <v>122</v>
       </c>
       <c r="D283">
-        <f>LEN(C283)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
         <v>137</v>
       </c>
       <c r="D284">
-        <f>LEN(C284)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
         <v>139</v>
       </c>
       <c r="D285">
-        <f>LEN(C285)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
         <v>141</v>
       </c>
       <c r="D286">
-        <f>LEN(C286)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
         <v>148</v>
       </c>
       <c r="D287">
-        <f>LEN(C287)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
         <v>183</v>
       </c>
       <c r="D288">
-        <f>LEN(C288)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
         <v>194</v>
       </c>
       <c r="D289">
-        <f>LEN(C289)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
         <v>227</v>
       </c>
       <c r="D290">
-        <f>LEN(C290)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
         <v>237</v>
       </c>
       <c r="D291">
-        <f>LEN(C291)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
         <v>262</v>
       </c>
       <c r="D292">
-        <f>LEN(C292)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11893,7 +11893,7 @@
         <v>264</v>
       </c>
       <c r="D293">
-        <f>LEN(C293)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
         <v>270</v>
       </c>
       <c r="D294">
-        <f>LEN(C294)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
         <v>292</v>
       </c>
       <c r="D295">
-        <f>LEN(C295)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
         <v>295</v>
       </c>
       <c r="D296">
-        <f>LEN(C296)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
         <v>304</v>
       </c>
       <c r="D297">
-        <f>LEN(C297)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
         <v>323</v>
       </c>
       <c r="D298">
-        <f>LEN(C298)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
         <v>347</v>
       </c>
       <c r="D299">
-        <f>LEN(C299)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
         <v>352</v>
       </c>
       <c r="D300">
-        <f>LEN(C300)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
         <v>375</v>
       </c>
       <c r="D301">
-        <f>LEN(C301)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
         <v>383</v>
       </c>
       <c r="D302">
-        <f>LEN(C302)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
         <v>436</v>
       </c>
       <c r="D303">
-        <f>LEN(C303)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
         <v>9</v>
       </c>
       <c r="D304">
-        <f>LEN(C304)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
         <v>11</v>
       </c>
       <c r="D305">
-        <f>LEN(C305)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
         <v>38</v>
       </c>
       <c r="D306">
-        <f>LEN(C306)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
         <v>58</v>
       </c>
       <c r="D307">
-        <f>LEN(C307)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
         <v>67</v>
       </c>
       <c r="D308">
-        <f>LEN(C308)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
         <v>70</v>
       </c>
       <c r="D309">
-        <f>LEN(C309)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
         <v>75</v>
       </c>
       <c r="D310">
-        <f>LEN(C310)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12163,7 +12163,7 @@
         <v>98</v>
       </c>
       <c r="D311">
-        <f>LEN(C311)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
         <v>102</v>
       </c>
       <c r="D312">
-        <f>LEN(C312)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
         <v>115</v>
       </c>
       <c r="D313">
-        <f>LEN(C313)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
         <v>118</v>
       </c>
       <c r="D314">
-        <f>LEN(C314)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>121</v>
       </c>
       <c r="D315">
-        <f>LEN(C315)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
         <v>123</v>
       </c>
       <c r="D316">
-        <f>LEN(C316)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
         <v>125</v>
       </c>
       <c r="D317">
-        <f>LEN(C317)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
         <v>130</v>
       </c>
       <c r="D318">
-        <f>LEN(C318)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12283,7 +12283,7 @@
         <v>147</v>
       </c>
       <c r="D319">
-        <f>LEN(C319)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
         <v>158</v>
       </c>
       <c r="D320">
-        <f>LEN(C320)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
         <v>161</v>
       </c>
       <c r="D321">
-        <f>LEN(C321)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
         <v>162</v>
       </c>
       <c r="D322">
-        <f>LEN(C322)</f>
+        <f t="shared" ref="D322:D385" si="5">LEN(C322)</f>
         <v>31</v>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
         <v>175</v>
       </c>
       <c r="D323">
-        <f>LEN(C323)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
         <v>216</v>
       </c>
       <c r="D324">
-        <f>LEN(C324)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
         <v>219</v>
       </c>
       <c r="D325">
-        <f>LEN(C325)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
         <v>229</v>
       </c>
       <c r="D326">
-        <f>LEN(C326)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
         <v>243</v>
       </c>
       <c r="D327">
-        <f>LEN(C327)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
         <v>250</v>
       </c>
       <c r="D328">
-        <f>LEN(C328)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
         <v>265</v>
       </c>
       <c r="D329">
-        <f>LEN(C329)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
         <v>272</v>
       </c>
       <c r="D330">
-        <f>LEN(C330)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
         <v>298</v>
       </c>
       <c r="D331">
-        <f>LEN(C331)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
         <v>316</v>
       </c>
       <c r="D332">
-        <f>LEN(C332)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
         <v>320</v>
       </c>
       <c r="D333">
-        <f>LEN(C333)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
         <v>337</v>
       </c>
       <c r="D334">
-        <f>LEN(C334)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
         <v>379</v>
       </c>
       <c r="D335">
-        <f>LEN(C335)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
         <v>380</v>
       </c>
       <c r="D336">
-        <f>LEN(C336)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
         <v>382</v>
       </c>
       <c r="D337">
-        <f>LEN(C337)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
         <v>391</v>
       </c>
       <c r="D338">
-        <f>LEN(C338)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12583,7 +12583,7 @@
         <v>405</v>
       </c>
       <c r="D339">
-        <f>LEN(C339)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
         <v>415</v>
       </c>
       <c r="D340">
-        <f>LEN(C340)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
         <v>423</v>
       </c>
       <c r="D341">
-        <f>LEN(C341)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
         <v>424</v>
       </c>
       <c r="D342">
-        <f>LEN(C342)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
         <v>9</v>
       </c>
       <c r="D343">
-        <f>LEN(C343)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
         <v>11</v>
       </c>
       <c r="D344">
-        <f>LEN(C344)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
         <v>38</v>
       </c>
       <c r="D345">
-        <f>LEN(C345)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
         <v>58</v>
       </c>
       <c r="D346">
-        <f>LEN(C346)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
         <v>67</v>
       </c>
       <c r="D347">
-        <f>LEN(C347)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
         <v>70</v>
       </c>
       <c r="D348">
-        <f>LEN(C348)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
         <v>75</v>
       </c>
       <c r="D349">
-        <f>LEN(C349)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
         <v>98</v>
       </c>
       <c r="D350">
-        <f>LEN(C350)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
         <v>102</v>
       </c>
       <c r="D351">
-        <f>LEN(C351)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
         <v>115</v>
       </c>
       <c r="D352">
-        <f>LEN(C352)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
         <v>118</v>
       </c>
       <c r="D353">
-        <f>LEN(C353)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
         <v>121</v>
       </c>
       <c r="D354">
-        <f>LEN(C354)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
         <v>123</v>
       </c>
       <c r="D355">
-        <f>LEN(C355)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12838,7 +12838,7 @@
         <v>125</v>
       </c>
       <c r="D356">
-        <f>LEN(C356)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12853,7 +12853,7 @@
         <v>130</v>
       </c>
       <c r="D357">
-        <f>LEN(C357)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
         <v>147</v>
       </c>
       <c r="D358">
-        <f>LEN(C358)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12883,7 +12883,7 @@
         <v>158</v>
       </c>
       <c r="D359">
-        <f>LEN(C359)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
         <v>161</v>
       </c>
       <c r="D360">
-        <f>LEN(C360)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
         <v>162</v>
       </c>
       <c r="D361">
-        <f>LEN(C361)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
         <v>175</v>
       </c>
       <c r="D362">
-        <f>LEN(C362)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12943,7 +12943,7 @@
         <v>216</v>
       </c>
       <c r="D363">
-        <f>LEN(C363)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
         <v>219</v>
       </c>
       <c r="D364">
-        <f>LEN(C364)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
         <v>229</v>
       </c>
       <c r="D365">
-        <f>LEN(C365)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -12988,7 +12988,7 @@
         <v>243</v>
       </c>
       <c r="D366">
-        <f>LEN(C366)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13003,7 +13003,7 @@
         <v>250</v>
       </c>
       <c r="D367">
-        <f>LEN(C367)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
         <v>265</v>
       </c>
       <c r="D368">
-        <f>LEN(C368)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
         <v>272</v>
       </c>
       <c r="D369">
-        <f>LEN(C369)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13048,7 +13048,7 @@
         <v>298</v>
       </c>
       <c r="D370">
-        <f>LEN(C370)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
         <v>316</v>
       </c>
       <c r="D371">
-        <f>LEN(C371)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
         <v>320</v>
       </c>
       <c r="D372">
-        <f>LEN(C372)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
         <v>337</v>
       </c>
       <c r="D373">
-        <f>LEN(C373)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
         <v>379</v>
       </c>
       <c r="D374">
-        <f>LEN(C374)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
         <v>380</v>
       </c>
       <c r="D375">
-        <f>LEN(C375)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
         <v>382</v>
       </c>
       <c r="D376">
-        <f>LEN(C376)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13153,7 +13153,7 @@
         <v>391</v>
       </c>
       <c r="D377">
-        <f>LEN(C377)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>405</v>
       </c>
       <c r="D378">
-        <f>LEN(C378)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
         <v>415</v>
       </c>
       <c r="D379">
-        <f>LEN(C379)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13198,7 +13198,7 @@
         <v>423</v>
       </c>
       <c r="D380">
-        <f>LEN(C380)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
         <v>424</v>
       </c>
       <c r="D381">
-        <f>LEN(C381)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
         <v>8</v>
       </c>
       <c r="D382">
-        <f>LEN(C382)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
         <v>22</v>
       </c>
       <c r="D383">
-        <f>LEN(C383)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
         <v>50</v>
       </c>
       <c r="D384">
-        <f>LEN(C384)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
         <v>53</v>
       </c>
       <c r="D385">
-        <f>LEN(C385)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
         <v>72</v>
       </c>
       <c r="D386">
-        <f>LEN(C386)</f>
+        <f t="shared" ref="D386:D449" si="6">LEN(C386)</f>
         <v>30</v>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
         <v>76</v>
       </c>
       <c r="D387">
-        <f>LEN(C387)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
         <v>83</v>
       </c>
       <c r="D388">
-        <f>LEN(C388)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
         <v>89</v>
       </c>
       <c r="D389">
-        <f>LEN(C389)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13348,7 +13348,7 @@
         <v>91</v>
       </c>
       <c r="D390">
-        <f>LEN(C390)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13363,7 +13363,7 @@
         <v>104</v>
       </c>
       <c r="D391">
-        <f>LEN(C391)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
         <v>124</v>
       </c>
       <c r="D392">
-        <f>LEN(C392)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13393,7 +13393,7 @@
         <v>131</v>
       </c>
       <c r="D393">
-        <f>LEN(C393)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13408,7 +13408,7 @@
         <v>133</v>
       </c>
       <c r="D394">
-        <f>LEN(C394)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
         <v>142</v>
       </c>
       <c r="D395">
-        <f>LEN(C395)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
         <v>160</v>
       </c>
       <c r="D396">
-        <f>LEN(C396)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
         <v>163</v>
       </c>
       <c r="D397">
-        <f>LEN(C397)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
         <v>165</v>
       </c>
       <c r="D398">
-        <f>LEN(C398)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
         <v>201</v>
       </c>
       <c r="D399">
-        <f>LEN(C399)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
         <v>209</v>
       </c>
       <c r="D400">
-        <f>LEN(C400)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
         <v>210</v>
       </c>
       <c r="D401">
-        <f>LEN(C401)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
         <v>224</v>
       </c>
       <c r="D402">
-        <f>LEN(C402)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
         <v>226</v>
       </c>
       <c r="D403">
-        <f>LEN(C403)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
         <v>241</v>
       </c>
       <c r="D404">
-        <f>LEN(C404)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
         <v>256</v>
       </c>
       <c r="D405">
-        <f>LEN(C405)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
         <v>267</v>
       </c>
       <c r="D406">
-        <f>LEN(C406)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
         <v>269</v>
       </c>
       <c r="D407">
-        <f>LEN(C407)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
         <v>275</v>
       </c>
       <c r="D408">
-        <f>LEN(C408)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
         <v>278</v>
       </c>
       <c r="D409">
-        <f>LEN(C409)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13648,7 +13648,7 @@
         <v>311</v>
       </c>
       <c r="D410">
-        <f>LEN(C410)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
         <v>340</v>
       </c>
       <c r="D411">
-        <f>LEN(C411)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
         <v>356</v>
       </c>
       <c r="D412">
-        <f>LEN(C412)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
         <v>367</v>
       </c>
       <c r="D413">
-        <f>LEN(C413)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13708,7 +13708,7 @@
         <v>371</v>
       </c>
       <c r="D414">
-        <f>LEN(C414)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13723,7 +13723,7 @@
         <v>374</v>
       </c>
       <c r="D415">
-        <f>LEN(C415)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
         <v>387</v>
       </c>
       <c r="D416">
-        <f>LEN(C416)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13753,7 +13753,7 @@
         <v>425</v>
       </c>
       <c r="D417">
-        <f>LEN(C417)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13768,7 +13768,7 @@
         <v>428</v>
       </c>
       <c r="D418">
-        <f>LEN(C418)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
         <v>432</v>
       </c>
       <c r="D419">
-        <f>LEN(C419)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
         <v>8</v>
       </c>
       <c r="D420">
-        <f>LEN(C420)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
         <v>22</v>
       </c>
       <c r="D421">
-        <f>LEN(C421)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13828,7 +13828,7 @@
         <v>50</v>
       </c>
       <c r="D422">
-        <f>LEN(C422)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
         <v>53</v>
       </c>
       <c r="D423">
-        <f>LEN(C423)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
         <v>72</v>
       </c>
       <c r="D424">
-        <f>LEN(C424)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
         <v>76</v>
       </c>
       <c r="D425">
-        <f>LEN(C425)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13888,7 +13888,7 @@
         <v>83</v>
       </c>
       <c r="D426">
-        <f>LEN(C426)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13903,7 +13903,7 @@
         <v>89</v>
       </c>
       <c r="D427">
-        <f>LEN(C427)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13918,7 +13918,7 @@
         <v>91</v>
       </c>
       <c r="D428">
-        <f>LEN(C428)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13933,7 +13933,7 @@
         <v>104</v>
       </c>
       <c r="D429">
-        <f>LEN(C429)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
         <v>124</v>
       </c>
       <c r="D430">
-        <f>LEN(C430)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
         <v>131</v>
       </c>
       <c r="D431">
-        <f>LEN(C431)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13978,7 +13978,7 @@
         <v>133</v>
       </c>
       <c r="D432">
-        <f>LEN(C432)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
         <v>142</v>
       </c>
       <c r="D433">
-        <f>LEN(C433)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14008,7 +14008,7 @@
         <v>160</v>
       </c>
       <c r="D434">
-        <f>LEN(C434)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
         <v>163</v>
       </c>
       <c r="D435">
-        <f>LEN(C435)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14038,7 +14038,7 @@
         <v>165</v>
       </c>
       <c r="D436">
-        <f>LEN(C436)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
         <v>201</v>
       </c>
       <c r="D437">
-        <f>LEN(C437)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
         <v>209</v>
       </c>
       <c r="D438">
-        <f>LEN(C438)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
         <v>210</v>
       </c>
       <c r="D439">
-        <f>LEN(C439)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
         <v>224</v>
       </c>
       <c r="D440">
-        <f>LEN(C440)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
         <v>226</v>
       </c>
       <c r="D441">
-        <f>LEN(C441)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14128,7 +14128,7 @@
         <v>241</v>
       </c>
       <c r="D442">
-        <f>LEN(C442)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
         <v>256</v>
       </c>
       <c r="D443">
-        <f>LEN(C443)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
         <v>267</v>
       </c>
       <c r="D444">
-        <f>LEN(C444)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14173,7 +14173,7 @@
         <v>269</v>
       </c>
       <c r="D445">
-        <f>LEN(C445)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14188,7 +14188,7 @@
         <v>275</v>
       </c>
       <c r="D446">
-        <f>LEN(C446)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14203,7 +14203,7 @@
         <v>278</v>
       </c>
       <c r="D447">
-        <f>LEN(C447)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
         <v>311</v>
       </c>
       <c r="D448">
-        <f>LEN(C448)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
         <v>340</v>
       </c>
       <c r="D449">
-        <f>LEN(C449)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -14248,7 +14248,7 @@
         <v>356</v>
       </c>
       <c r="D450">
-        <f>LEN(C450)</f>
+        <f t="shared" ref="D450:D513" si="7">LEN(C450)</f>
         <v>30</v>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
         <v>367</v>
       </c>
       <c r="D451">
-        <f>LEN(C451)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14278,7 +14278,7 @@
         <v>371</v>
       </c>
       <c r="D452">
-        <f>LEN(C452)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
         <v>374</v>
       </c>
       <c r="D453">
-        <f>LEN(C453)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
         <v>387</v>
       </c>
       <c r="D454">
-        <f>LEN(C454)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
         <v>425</v>
       </c>
       <c r="D455">
-        <f>LEN(C455)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14338,7 +14338,7 @@
         <v>428</v>
       </c>
       <c r="D456">
-        <f>LEN(C456)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14353,7 +14353,7 @@
         <v>432</v>
       </c>
       <c r="D457">
-        <f>LEN(C457)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14368,7 +14368,7 @@
         <v>453</v>
       </c>
       <c r="D458">
-        <f>LEN(C458)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
         <v>453</v>
       </c>
       <c r="D459">
-        <f>LEN(C459)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
         <v>5</v>
       </c>
       <c r="D460">
-        <f>LEN(C460)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
         <v>12</v>
       </c>
       <c r="D461">
-        <f>LEN(C461)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14428,7 +14428,7 @@
         <v>18</v>
       </c>
       <c r="D462">
-        <f>LEN(C462)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
         <v>21</v>
       </c>
       <c r="D463">
-        <f>LEN(C463)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
         <v>26</v>
       </c>
       <c r="D464">
-        <f>LEN(C464)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
         <v>33</v>
       </c>
       <c r="D465">
-        <f>LEN(C465)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
         <v>39</v>
       </c>
       <c r="D466">
-        <f>LEN(C466)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
         <v>47</v>
       </c>
       <c r="D467">
-        <f>LEN(C467)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
         <v>63</v>
       </c>
       <c r="D468">
-        <f>LEN(C468)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
         <v>93</v>
       </c>
       <c r="D469">
-        <f>LEN(C469)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14548,7 +14548,7 @@
         <v>103</v>
       </c>
       <c r="D470">
-        <f>LEN(C470)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
         <v>112</v>
       </c>
       <c r="D471">
-        <f>LEN(C471)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14578,7 +14578,7 @@
         <v>113</v>
       </c>
       <c r="D472">
-        <f>LEN(C472)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
         <v>117</v>
       </c>
       <c r="D473">
-        <f>LEN(C473)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14608,7 +14608,7 @@
         <v>120</v>
       </c>
       <c r="D474">
-        <f>LEN(C474)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
         <v>178</v>
       </c>
       <c r="D475">
-        <f>LEN(C475)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14638,7 +14638,7 @@
         <v>180</v>
       </c>
       <c r="D476">
-        <f>LEN(C476)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
         <v>182</v>
       </c>
       <c r="D477">
-        <f>LEN(C477)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14668,7 +14668,7 @@
         <v>212</v>
       </c>
       <c r="D478">
-        <f>LEN(C478)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14683,7 +14683,7 @@
         <v>213</v>
       </c>
       <c r="D479">
-        <f>LEN(C479)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14698,7 +14698,7 @@
         <v>214</v>
       </c>
       <c r="D480">
-        <f>LEN(C480)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
         <v>230</v>
       </c>
       <c r="D481">
-        <f>LEN(C481)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14728,7 +14728,7 @@
         <v>245</v>
       </c>
       <c r="D482">
-        <f>LEN(C482)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
         <v>252</v>
       </c>
       <c r="D483">
-        <f>LEN(C483)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
         <v>285</v>
       </c>
       <c r="D484">
-        <f>LEN(C484)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
         <v>288</v>
       </c>
       <c r="D485">
-        <f>LEN(C485)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
         <v>312</v>
       </c>
       <c r="D486">
-        <f>LEN(C486)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
         <v>313</v>
       </c>
       <c r="D487">
-        <f>LEN(C487)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
         <v>345</v>
       </c>
       <c r="D488">
-        <f>LEN(C488)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
         <v>369</v>
       </c>
       <c r="D489">
-        <f>LEN(C489)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14848,7 +14848,7 @@
         <v>370</v>
       </c>
       <c r="D490">
-        <f>LEN(C490)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14863,7 +14863,7 @@
         <v>430</v>
       </c>
       <c r="D491">
-        <f>LEN(C491)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14878,7 +14878,7 @@
         <v>5</v>
       </c>
       <c r="D492">
-        <f>LEN(C492)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
         <v>12</v>
       </c>
       <c r="D493">
-        <f>LEN(C493)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
         <v>18</v>
       </c>
       <c r="D494">
-        <f>LEN(C494)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14923,7 +14923,7 @@
         <v>21</v>
       </c>
       <c r="D495">
-        <f>LEN(C495)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
         <v>26</v>
       </c>
       <c r="D496">
-        <f>LEN(C496)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
         <v>33</v>
       </c>
       <c r="D497">
-        <f>LEN(C497)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
         <v>39</v>
       </c>
       <c r="D498">
-        <f>LEN(C498)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
         <v>47</v>
       </c>
       <c r="D499">
-        <f>LEN(C499)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -14998,7 +14998,7 @@
         <v>63</v>
       </c>
       <c r="D500">
-        <f>LEN(C500)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15013,7 +15013,7 @@
         <v>93</v>
       </c>
       <c r="D501">
-        <f>LEN(C501)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15028,7 +15028,7 @@
         <v>103</v>
       </c>
       <c r="D502">
-        <f>LEN(C502)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15043,7 +15043,7 @@
         <v>112</v>
       </c>
       <c r="D503">
-        <f>LEN(C503)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
         <v>113</v>
       </c>
       <c r="D504">
-        <f>LEN(C504)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
         <v>117</v>
       </c>
       <c r="D505">
-        <f>LEN(C505)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
         <v>120</v>
       </c>
       <c r="D506">
-        <f>LEN(C506)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
         <v>178</v>
       </c>
       <c r="D507">
-        <f>LEN(C507)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15118,7 +15118,7 @@
         <v>180</v>
       </c>
       <c r="D508">
-        <f>LEN(C508)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
         <v>182</v>
       </c>
       <c r="D509">
-        <f>LEN(C509)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
         <v>212</v>
       </c>
       <c r="D510">
-        <f>LEN(C510)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
         <v>213</v>
       </c>
       <c r="D511">
-        <f>LEN(C511)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15178,7 +15178,7 @@
         <v>214</v>
       </c>
       <c r="D512">
-        <f>LEN(C512)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15193,7 +15193,7 @@
         <v>230</v>
       </c>
       <c r="D513">
-        <f>LEN(C513)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
@@ -15208,7 +15208,7 @@
         <v>245</v>
       </c>
       <c r="D514">
-        <f>LEN(C514)</f>
+        <f t="shared" ref="D514:D577" si="8">LEN(C514)</f>
         <v>29</v>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
         <v>252</v>
       </c>
       <c r="D515">
-        <f>LEN(C515)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15238,7 +15238,7 @@
         <v>285</v>
       </c>
       <c r="D516">
-        <f>LEN(C516)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
         <v>288</v>
       </c>
       <c r="D517">
-        <f>LEN(C517)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15268,7 +15268,7 @@
         <v>312</v>
       </c>
       <c r="D518">
-        <f>LEN(C518)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
         <v>313</v>
       </c>
       <c r="D519">
-        <f>LEN(C519)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
         <v>345</v>
       </c>
       <c r="D520">
-        <f>LEN(C520)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15313,7 +15313,7 @@
         <v>369</v>
       </c>
       <c r="D521">
-        <f>LEN(C521)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
         <v>370</v>
       </c>
       <c r="D522">
-        <f>LEN(C522)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
         <v>430</v>
       </c>
       <c r="D523">
-        <f>LEN(C523)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
         <v>441</v>
       </c>
       <c r="D524">
-        <f>LEN(C524)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
         <v>452</v>
       </c>
       <c r="D525">
-        <f>LEN(C525)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15388,7 +15388,7 @@
         <v>452</v>
       </c>
       <c r="D526">
-        <f>LEN(C526)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
@@ -15403,7 +15403,7 @@
         <v>4</v>
       </c>
       <c r="D527">
-        <f>LEN(C527)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15418,7 +15418,7 @@
         <v>13</v>
       </c>
       <c r="D528">
-        <f>LEN(C528)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
         <v>15</v>
       </c>
       <c r="D529">
-        <f>LEN(C529)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
         <v>16</v>
       </c>
       <c r="D530">
-        <f>LEN(C530)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15463,7 +15463,7 @@
         <v>48</v>
       </c>
       <c r="D531">
-        <f>LEN(C531)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15478,7 +15478,7 @@
         <v>77</v>
       </c>
       <c r="D532">
-        <f>LEN(C532)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15493,7 +15493,7 @@
         <v>82</v>
       </c>
       <c r="D533">
-        <f>LEN(C533)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15508,7 +15508,7 @@
         <v>114</v>
       </c>
       <c r="D534">
-        <f>LEN(C534)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
         <v>126</v>
       </c>
       <c r="D535">
-        <f>LEN(C535)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15538,7 +15538,7 @@
         <v>127</v>
       </c>
       <c r="D536">
-        <f>LEN(C536)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
         <v>146</v>
       </c>
       <c r="D537">
-        <f>LEN(C537)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
         <v>159</v>
       </c>
       <c r="D538">
-        <f>LEN(C538)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
         <v>179</v>
       </c>
       <c r="D539">
-        <f>LEN(C539)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
         <v>186</v>
       </c>
       <c r="D540">
-        <f>LEN(C540)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
         <v>191</v>
       </c>
       <c r="D541">
-        <f>LEN(C541)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15628,7 +15628,7 @@
         <v>192</v>
       </c>
       <c r="D542">
-        <f>LEN(C542)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15643,7 +15643,7 @@
         <v>196</v>
       </c>
       <c r="D543">
-        <f>LEN(C543)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15658,7 +15658,7 @@
         <v>206</v>
       </c>
       <c r="D544">
-        <f>LEN(C544)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15673,7 +15673,7 @@
         <v>207</v>
       </c>
       <c r="D545">
-        <f>LEN(C545)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
         <v>222</v>
       </c>
       <c r="D546">
-        <f>LEN(C546)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15703,7 +15703,7 @@
         <v>228</v>
       </c>
       <c r="D547">
-        <f>LEN(C547)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15718,7 +15718,7 @@
         <v>231</v>
       </c>
       <c r="D548">
-        <f>LEN(C548)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15733,7 +15733,7 @@
         <v>248</v>
       </c>
       <c r="D549">
-        <f>LEN(C549)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
         <v>274</v>
       </c>
       <c r="D550">
-        <f>LEN(C550)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
         <v>349</v>
       </c>
       <c r="D551">
-        <f>LEN(C551)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15778,7 +15778,7 @@
         <v>354</v>
       </c>
       <c r="D552">
-        <f>LEN(C552)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
         <v>355</v>
       </c>
       <c r="D553">
-        <f>LEN(C553)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15808,7 +15808,7 @@
         <v>362</v>
       </c>
       <c r="D554">
-        <f>LEN(C554)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15823,7 +15823,7 @@
         <v>392</v>
       </c>
       <c r="D555">
-        <f>LEN(C555)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
         <v>398</v>
       </c>
       <c r="D556">
-        <f>LEN(C556)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15853,7 +15853,7 @@
         <v>403</v>
       </c>
       <c r="D557">
-        <f>LEN(C557)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15868,7 +15868,7 @@
         <v>411</v>
       </c>
       <c r="D558">
-        <f>LEN(C558)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
         <v>426</v>
       </c>
       <c r="D559">
-        <f>LEN(C559)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15898,7 +15898,7 @@
         <v>4</v>
       </c>
       <c r="D560">
-        <f>LEN(C560)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15913,7 +15913,7 @@
         <v>13</v>
       </c>
       <c r="D561">
-        <f>LEN(C561)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15928,7 +15928,7 @@
         <v>15</v>
       </c>
       <c r="D562">
-        <f>LEN(C562)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
         <v>16</v>
       </c>
       <c r="D563">
-        <f>LEN(C563)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15958,7 +15958,7 @@
         <v>48</v>
       </c>
       <c r="D564">
-        <f>LEN(C564)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15973,7 +15973,7 @@
         <v>77</v>
       </c>
       <c r="D565">
-        <f>LEN(C565)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -15988,7 +15988,7 @@
         <v>82</v>
       </c>
       <c r="D566">
-        <f>LEN(C566)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16003,7 +16003,7 @@
         <v>114</v>
       </c>
       <c r="D567">
-        <f>LEN(C567)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
         <v>126</v>
       </c>
       <c r="D568">
-        <f>LEN(C568)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
         <v>127</v>
       </c>
       <c r="D569">
-        <f>LEN(C569)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16048,7 +16048,7 @@
         <v>146</v>
       </c>
       <c r="D570">
-        <f>LEN(C570)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16063,7 +16063,7 @@
         <v>159</v>
       </c>
       <c r="D571">
-        <f>LEN(C571)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16078,7 +16078,7 @@
         <v>179</v>
       </c>
       <c r="D572">
-        <f>LEN(C572)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
         <v>186</v>
       </c>
       <c r="D573">
-        <f>LEN(C573)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16108,7 +16108,7 @@
         <v>191</v>
       </c>
       <c r="D574">
-        <f>LEN(C574)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16123,7 +16123,7 @@
         <v>192</v>
       </c>
       <c r="D575">
-        <f>LEN(C575)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16138,7 +16138,7 @@
         <v>196</v>
       </c>
       <c r="D576">
-        <f>LEN(C576)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
         <v>206</v>
       </c>
       <c r="D577">
-        <f>LEN(C577)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -16168,7 +16168,7 @@
         <v>207</v>
       </c>
       <c r="D578">
-        <f>LEN(C578)</f>
+        <f t="shared" ref="D578:D641" si="9">LEN(C578)</f>
         <v>28</v>
       </c>
     </row>
@@ -16183,7 +16183,7 @@
         <v>222</v>
       </c>
       <c r="D579">
-        <f>LEN(C579)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16198,7 +16198,7 @@
         <v>228</v>
       </c>
       <c r="D580">
-        <f>LEN(C580)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
         <v>231</v>
       </c>
       <c r="D581">
-        <f>LEN(C581)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16228,7 +16228,7 @@
         <v>248</v>
       </c>
       <c r="D582">
-        <f>LEN(C582)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
         <v>274</v>
       </c>
       <c r="D583">
-        <f>LEN(C583)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16258,7 +16258,7 @@
         <v>349</v>
       </c>
       <c r="D584">
-        <f>LEN(C584)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16273,7 +16273,7 @@
         <v>354</v>
       </c>
       <c r="D585">
-        <f>LEN(C585)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16288,7 +16288,7 @@
         <v>355</v>
       </c>
       <c r="D586">
-        <f>LEN(C586)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16303,7 +16303,7 @@
         <v>362</v>
       </c>
       <c r="D587">
-        <f>LEN(C587)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16318,7 +16318,7 @@
         <v>392</v>
       </c>
       <c r="D588">
-        <f>LEN(C588)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
         <v>398</v>
       </c>
       <c r="D589">
-        <f>LEN(C589)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
         <v>403</v>
       </c>
       <c r="D590">
-        <f>LEN(C590)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16363,7 +16363,7 @@
         <v>411</v>
       </c>
       <c r="D591">
-        <f>LEN(C591)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
         <v>426</v>
       </c>
       <c r="D592">
-        <f>LEN(C592)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
@@ -16393,7 +16393,7 @@
         <v>7</v>
       </c>
       <c r="D593">
-        <f>LEN(C593)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16408,7 +16408,7 @@
         <v>17</v>
       </c>
       <c r="D594">
-        <f>LEN(C594)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
         <v>27</v>
       </c>
       <c r="D595">
-        <f>LEN(C595)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
         <v>51</v>
       </c>
       <c r="D596">
-        <f>LEN(C596)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
         <v>52</v>
       </c>
       <c r="D597">
-        <f>LEN(C597)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16468,7 +16468,7 @@
         <v>97</v>
       </c>
       <c r="D598">
-        <f>LEN(C598)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16483,7 +16483,7 @@
         <v>143</v>
       </c>
       <c r="D599">
-        <f>LEN(C599)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16498,7 +16498,7 @@
         <v>154</v>
       </c>
       <c r="D600">
-        <f>LEN(C600)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
         <v>157</v>
       </c>
       <c r="D601">
-        <f>LEN(C601)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16528,7 +16528,7 @@
         <v>164</v>
       </c>
       <c r="D602">
-        <f>LEN(C602)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
         <v>193</v>
       </c>
       <c r="D603">
-        <f>LEN(C603)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16558,7 +16558,7 @@
         <v>220</v>
       </c>
       <c r="D604">
-        <f>LEN(C604)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
         <v>253</v>
       </c>
       <c r="D605">
-        <f>LEN(C605)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
         <v>257</v>
       </c>
       <c r="D606">
-        <f>LEN(C606)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
         <v>282</v>
       </c>
       <c r="D607">
-        <f>LEN(C607)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16618,7 +16618,7 @@
         <v>287</v>
       </c>
       <c r="D608">
-        <f>LEN(C608)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16633,7 +16633,7 @@
         <v>306</v>
       </c>
       <c r="D609">
-        <f>LEN(C609)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16648,7 +16648,7 @@
         <v>308</v>
       </c>
       <c r="D610">
-        <f>LEN(C610)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16663,7 +16663,7 @@
         <v>317</v>
       </c>
       <c r="D611">
-        <f>LEN(C611)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16678,7 +16678,7 @@
         <v>321</v>
       </c>
       <c r="D612">
-        <f>LEN(C612)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16693,7 +16693,7 @@
         <v>324</v>
       </c>
       <c r="D613">
-        <f>LEN(C613)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
         <v>338</v>
       </c>
       <c r="D614">
-        <f>LEN(C614)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16723,7 +16723,7 @@
         <v>342</v>
       </c>
       <c r="D615">
-        <f>LEN(C615)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16738,7 +16738,7 @@
         <v>344</v>
       </c>
       <c r="D616">
-        <f>LEN(C616)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
         <v>359</v>
       </c>
       <c r="D617">
-        <f>LEN(C617)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16768,7 +16768,7 @@
         <v>364</v>
       </c>
       <c r="D618">
-        <f>LEN(C618)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16783,7 +16783,7 @@
         <v>372</v>
       </c>
       <c r="D619">
-        <f>LEN(C619)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16798,7 +16798,7 @@
         <v>373</v>
       </c>
       <c r="D620">
-        <f>LEN(C620)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
         <v>400</v>
       </c>
       <c r="D621">
-        <f>LEN(C621)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16828,7 +16828,7 @@
         <v>406</v>
       </c>
       <c r="D622">
-        <f>LEN(C622)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16843,7 +16843,7 @@
         <v>407</v>
       </c>
       <c r="D623">
-        <f>LEN(C623)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
         <v>419</v>
       </c>
       <c r="D624">
-        <f>LEN(C624)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
         <v>433</v>
       </c>
       <c r="D625">
-        <f>LEN(C625)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16888,7 +16888,7 @@
         <v>7</v>
       </c>
       <c r="D626">
-        <f>LEN(C626)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16903,7 +16903,7 @@
         <v>17</v>
       </c>
       <c r="D627">
-        <f>LEN(C627)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16918,7 +16918,7 @@
         <v>27</v>
       </c>
       <c r="D628">
-        <f>LEN(C628)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
         <v>51</v>
       </c>
       <c r="D629">
-        <f>LEN(C629)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
         <v>52</v>
       </c>
       <c r="D630">
-        <f>LEN(C630)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16963,7 +16963,7 @@
         <v>97</v>
       </c>
       <c r="D631">
-        <f>LEN(C631)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16978,7 +16978,7 @@
         <v>143</v>
       </c>
       <c r="D632">
-        <f>LEN(C632)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
         <v>154</v>
       </c>
       <c r="D633">
-        <f>LEN(C633)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17008,7 +17008,7 @@
         <v>157</v>
       </c>
       <c r="D634">
-        <f>LEN(C634)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17023,7 +17023,7 @@
         <v>164</v>
       </c>
       <c r="D635">
-        <f>LEN(C635)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17038,7 +17038,7 @@
         <v>193</v>
       </c>
       <c r="D636">
-        <f>LEN(C636)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
         <v>220</v>
       </c>
       <c r="D637">
-        <f>LEN(C637)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17068,7 +17068,7 @@
         <v>253</v>
       </c>
       <c r="D638">
-        <f>LEN(C638)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
         <v>257</v>
       </c>
       <c r="D639">
-        <f>LEN(C639)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17098,7 +17098,7 @@
         <v>282</v>
       </c>
       <c r="D640">
-        <f>LEN(C640)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
         <v>287</v>
       </c>
       <c r="D641">
-        <f>LEN(C641)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
     </row>
@@ -17128,7 +17128,7 @@
         <v>306</v>
       </c>
       <c r="D642">
-        <f>LEN(C642)</f>
+        <f t="shared" ref="D642:D705" si="10">LEN(C642)</f>
         <v>27</v>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
         <v>308</v>
       </c>
       <c r="D643">
-        <f>LEN(C643)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17158,7 +17158,7 @@
         <v>317</v>
       </c>
       <c r="D644">
-        <f>LEN(C644)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17173,7 +17173,7 @@
         <v>321</v>
       </c>
       <c r="D645">
-        <f>LEN(C645)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17188,7 +17188,7 @@
         <v>324</v>
       </c>
       <c r="D646">
-        <f>LEN(C646)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17203,7 +17203,7 @@
         <v>338</v>
       </c>
       <c r="D647">
-        <f>LEN(C647)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17218,7 +17218,7 @@
         <v>342</v>
       </c>
       <c r="D648">
-        <f>LEN(C648)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
         <v>344</v>
       </c>
       <c r="D649">
-        <f>LEN(C649)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17248,7 +17248,7 @@
         <v>359</v>
       </c>
       <c r="D650">
-        <f>LEN(C650)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17263,7 +17263,7 @@
         <v>364</v>
       </c>
       <c r="D651">
-        <f>LEN(C651)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
         <v>372</v>
       </c>
       <c r="D652">
-        <f>LEN(C652)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17293,7 +17293,7 @@
         <v>373</v>
       </c>
       <c r="D653">
-        <f>LEN(C653)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17308,7 +17308,7 @@
         <v>400</v>
       </c>
       <c r="D654">
-        <f>LEN(C654)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17323,7 +17323,7 @@
         <v>406</v>
       </c>
       <c r="D655">
-        <f>LEN(C655)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17338,7 +17338,7 @@
         <v>407</v>
       </c>
       <c r="D656">
-        <f>LEN(C656)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17353,7 +17353,7 @@
         <v>419</v>
       </c>
       <c r="D657">
-        <f>LEN(C657)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17368,7 +17368,7 @@
         <v>433</v>
       </c>
       <c r="D658">
-        <f>LEN(C658)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -17383,7 +17383,7 @@
         <v>19</v>
       </c>
       <c r="D659">
-        <f>LEN(C659)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17398,7 +17398,7 @@
         <v>25</v>
       </c>
       <c r="D660">
-        <f>LEN(C660)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
         <v>30</v>
       </c>
       <c r="D661">
-        <f>LEN(C661)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
         <v>34</v>
       </c>
       <c r="D662">
-        <f>LEN(C662)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
         <v>57</v>
       </c>
       <c r="D663">
-        <f>LEN(C663)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17458,7 +17458,7 @@
         <v>59</v>
       </c>
       <c r="D664">
-        <f>LEN(C664)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17473,7 +17473,7 @@
         <v>96</v>
       </c>
       <c r="D665">
-        <f>LEN(C665)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17488,7 +17488,7 @@
         <v>129</v>
       </c>
       <c r="D666">
-        <f>LEN(C666)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
         <v>151</v>
       </c>
       <c r="D667">
-        <f>LEN(C667)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17518,7 +17518,7 @@
         <v>152</v>
       </c>
       <c r="D668">
-        <f>LEN(C668)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
         <v>169</v>
       </c>
       <c r="D669">
-        <f>LEN(C669)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
         <v>170</v>
       </c>
       <c r="D670">
-        <f>LEN(C670)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
         <v>184</v>
       </c>
       <c r="D671">
-        <f>LEN(C671)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
         <v>188</v>
       </c>
       <c r="D672">
-        <f>LEN(C672)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
         <v>198</v>
       </c>
       <c r="D673">
-        <f>LEN(C673)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17608,7 +17608,7 @@
         <v>199</v>
       </c>
       <c r="D674">
-        <f>LEN(C674)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17623,7 +17623,7 @@
         <v>203</v>
       </c>
       <c r="D675">
-        <f>LEN(C675)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
         <v>223</v>
       </c>
       <c r="D676">
-        <f>LEN(C676)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17653,7 +17653,7 @@
         <v>232</v>
       </c>
       <c r="D677">
-        <f>LEN(C677)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17668,7 +17668,7 @@
         <v>234</v>
       </c>
       <c r="D678">
-        <f>LEN(C678)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17683,7 +17683,7 @@
         <v>240</v>
       </c>
       <c r="D679">
-        <f>LEN(C679)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17698,7 +17698,7 @@
         <v>254</v>
       </c>
       <c r="D680">
-        <f>LEN(C680)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17713,7 +17713,7 @@
         <v>276</v>
       </c>
       <c r="D681">
-        <f>LEN(C681)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17728,7 +17728,7 @@
         <v>303</v>
       </c>
       <c r="D682">
-        <f>LEN(C682)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
         <v>341</v>
       </c>
       <c r="D683">
-        <f>LEN(C683)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17758,7 +17758,7 @@
         <v>353</v>
       </c>
       <c r="D684">
-        <f>LEN(C684)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
         <v>365</v>
       </c>
       <c r="D685">
-        <f>LEN(C685)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17788,7 +17788,7 @@
         <v>377</v>
       </c>
       <c r="D686">
-        <f>LEN(C686)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17803,7 +17803,7 @@
         <v>381</v>
       </c>
       <c r="D687">
-        <f>LEN(C687)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17818,7 +17818,7 @@
         <v>384</v>
       </c>
       <c r="D688">
-        <f>LEN(C688)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
         <v>396</v>
       </c>
       <c r="D689">
-        <f>LEN(C689)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17848,7 +17848,7 @@
         <v>408</v>
       </c>
       <c r="D690">
-        <f>LEN(C690)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17863,7 +17863,7 @@
         <v>416</v>
       </c>
       <c r="D691">
-        <f>LEN(C691)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17878,7 +17878,7 @@
         <v>418</v>
       </c>
       <c r="D692">
-        <f>LEN(C692)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17893,7 +17893,7 @@
         <v>431</v>
       </c>
       <c r="D693">
-        <f>LEN(C693)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17908,7 +17908,7 @@
         <v>435</v>
       </c>
       <c r="D694">
-        <f>LEN(C694)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17923,7 +17923,7 @@
         <v>19</v>
       </c>
       <c r="D695">
-        <f>LEN(C695)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
         <v>25</v>
       </c>
       <c r="D696">
-        <f>LEN(C696)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17953,7 +17953,7 @@
         <v>30</v>
       </c>
       <c r="D697">
-        <f>LEN(C697)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
         <v>34</v>
       </c>
       <c r="D698">
-        <f>LEN(C698)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
         <v>57</v>
       </c>
       <c r="D699">
-        <f>LEN(C699)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
         <v>59</v>
       </c>
       <c r="D700">
-        <f>LEN(C700)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18013,7 +18013,7 @@
         <v>96</v>
       </c>
       <c r="D701">
-        <f>LEN(C701)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18028,7 +18028,7 @@
         <v>129</v>
       </c>
       <c r="D702">
-        <f>LEN(C702)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18043,7 +18043,7 @@
         <v>151</v>
       </c>
       <c r="D703">
-        <f>LEN(C703)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
         <v>152</v>
       </c>
       <c r="D704">
-        <f>LEN(C704)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
         <v>169</v>
       </c>
       <c r="D705">
-        <f>LEN(C705)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -18088,7 +18088,7 @@
         <v>170</v>
       </c>
       <c r="D706">
-        <f>LEN(C706)</f>
+        <f t="shared" ref="D706:D769" si="11">LEN(C706)</f>
         <v>26</v>
       </c>
     </row>
@@ -18103,7 +18103,7 @@
         <v>184</v>
       </c>
       <c r="D707">
-        <f>LEN(C707)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18118,7 +18118,7 @@
         <v>188</v>
       </c>
       <c r="D708">
-        <f>LEN(C708)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
         <v>198</v>
       </c>
       <c r="D709">
-        <f>LEN(C709)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18148,7 +18148,7 @@
         <v>199</v>
       </c>
       <c r="D710">
-        <f>LEN(C710)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18163,7 +18163,7 @@
         <v>203</v>
       </c>
       <c r="D711">
-        <f>LEN(C711)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18178,7 +18178,7 @@
         <v>223</v>
       </c>
       <c r="D712">
-        <f>LEN(C712)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18193,7 +18193,7 @@
         <v>232</v>
       </c>
       <c r="D713">
-        <f>LEN(C713)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18208,7 +18208,7 @@
         <v>234</v>
       </c>
       <c r="D714">
-        <f>LEN(C714)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18223,7 +18223,7 @@
         <v>240</v>
       </c>
       <c r="D715">
-        <f>LEN(C715)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18238,7 +18238,7 @@
         <v>254</v>
       </c>
       <c r="D716">
-        <f>LEN(C716)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
         <v>276</v>
       </c>
       <c r="D717">
-        <f>LEN(C717)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
         <v>303</v>
       </c>
       <c r="D718">
-        <f>LEN(C718)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18283,7 +18283,7 @@
         <v>341</v>
       </c>
       <c r="D719">
-        <f>LEN(C719)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18298,7 +18298,7 @@
         <v>353</v>
       </c>
       <c r="D720">
-        <f>LEN(C720)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
         <v>365</v>
       </c>
       <c r="D721">
-        <f>LEN(C721)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
         <v>377</v>
       </c>
       <c r="D722">
-        <f>LEN(C722)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18343,7 +18343,7 @@
         <v>381</v>
       </c>
       <c r="D723">
-        <f>LEN(C723)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18358,7 +18358,7 @@
         <v>384</v>
       </c>
       <c r="D724">
-        <f>LEN(C724)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18373,7 +18373,7 @@
         <v>396</v>
       </c>
       <c r="D725">
-        <f>LEN(C725)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18388,7 +18388,7 @@
         <v>408</v>
       </c>
       <c r="D726">
-        <f>LEN(C726)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18403,7 +18403,7 @@
         <v>416</v>
       </c>
       <c r="D727">
-        <f>LEN(C727)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
         <v>418</v>
       </c>
       <c r="D728">
-        <f>LEN(C728)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
         <v>431</v>
       </c>
       <c r="D729">
-        <f>LEN(C729)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18448,7 +18448,7 @@
         <v>435</v>
       </c>
       <c r="D730">
-        <f>LEN(C730)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
@@ -18463,7 +18463,7 @@
         <v>3</v>
       </c>
       <c r="D731">
-        <f>LEN(C731)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18478,7 +18478,7 @@
         <v>68</v>
       </c>
       <c r="D732">
-        <f>LEN(C732)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18493,7 +18493,7 @@
         <v>134</v>
       </c>
       <c r="D733">
-        <f>LEN(C733)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18508,7 +18508,7 @@
         <v>144</v>
       </c>
       <c r="D734">
-        <f>LEN(C734)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
         <v>153</v>
       </c>
       <c r="D735">
-        <f>LEN(C735)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18538,7 +18538,7 @@
         <v>168</v>
       </c>
       <c r="D736">
-        <f>LEN(C736)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18553,7 +18553,7 @@
         <v>205</v>
       </c>
       <c r="D737">
-        <f>LEN(C737)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18568,7 +18568,7 @@
         <v>279</v>
       </c>
       <c r="D738">
-        <f>LEN(C738)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18583,7 +18583,7 @@
         <v>294</v>
       </c>
       <c r="D739">
-        <f>LEN(C739)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18598,7 +18598,7 @@
         <v>339</v>
       </c>
       <c r="D740">
-        <f>LEN(C740)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
         <v>376</v>
       </c>
       <c r="D741">
-        <f>LEN(C741)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
         <v>385</v>
       </c>
       <c r="D742">
-        <f>LEN(C742)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18643,7 +18643,7 @@
         <v>390</v>
       </c>
       <c r="D743">
-        <f>LEN(C743)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18658,7 +18658,7 @@
         <v>421</v>
       </c>
       <c r="D744">
-        <f>LEN(C744)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
         <v>3</v>
       </c>
       <c r="D745">
-        <f>LEN(C745)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
         <v>68</v>
       </c>
       <c r="D746">
-        <f>LEN(C746)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18703,7 +18703,7 @@
         <v>134</v>
       </c>
       <c r="D747">
-        <f>LEN(C747)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18718,7 +18718,7 @@
         <v>144</v>
       </c>
       <c r="D748">
-        <f>LEN(C748)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18733,7 +18733,7 @@
         <v>153</v>
       </c>
       <c r="D749">
-        <f>LEN(C749)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18748,7 +18748,7 @@
         <v>168</v>
       </c>
       <c r="D750">
-        <f>LEN(C750)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18763,7 +18763,7 @@
         <v>205</v>
       </c>
       <c r="D751">
-        <f>LEN(C751)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18778,7 +18778,7 @@
         <v>279</v>
       </c>
       <c r="D752">
-        <f>LEN(C752)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18793,7 +18793,7 @@
         <v>294</v>
       </c>
       <c r="D753">
-        <f>LEN(C753)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18808,7 +18808,7 @@
         <v>339</v>
       </c>
       <c r="D754">
-        <f>LEN(C754)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18823,7 +18823,7 @@
         <v>376</v>
       </c>
       <c r="D755">
-        <f>LEN(C755)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18838,7 +18838,7 @@
         <v>385</v>
       </c>
       <c r="D756">
-        <f>LEN(C756)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18853,7 +18853,7 @@
         <v>390</v>
       </c>
       <c r="D757">
-        <f>LEN(C757)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18868,7 +18868,7 @@
         <v>421</v>
       </c>
       <c r="D758">
-        <f>LEN(C758)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
         <v>6</v>
       </c>
       <c r="D759">
-        <f>LEN(C759)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18898,7 +18898,7 @@
         <v>23</v>
       </c>
       <c r="D760">
-        <f>LEN(C760)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18913,7 +18913,7 @@
         <v>31</v>
       </c>
       <c r="D761">
-        <f>LEN(C761)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18928,7 +18928,7 @@
         <v>40</v>
       </c>
       <c r="D762">
-        <f>LEN(C762)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18943,7 +18943,7 @@
         <v>60</v>
       </c>
       <c r="D763">
-        <f>LEN(C763)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18958,7 +18958,7 @@
         <v>136</v>
       </c>
       <c r="D764">
-        <f>LEN(C764)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18973,7 +18973,7 @@
         <v>171</v>
       </c>
       <c r="D765">
-        <f>LEN(C765)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -18988,7 +18988,7 @@
         <v>202</v>
       </c>
       <c r="D766">
-        <f>LEN(C766)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -19003,7 +19003,7 @@
         <v>217</v>
       </c>
       <c r="D767">
-        <f>LEN(C767)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
         <v>221</v>
       </c>
       <c r="D768">
-        <f>LEN(C768)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
         <v>225</v>
       </c>
       <c r="D769">
-        <f>LEN(C769)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -19048,7 +19048,7 @@
         <v>343</v>
       </c>
       <c r="D770">
-        <f>LEN(C770)</f>
+        <f t="shared" ref="D770:D833" si="12">LEN(C770)</f>
         <v>24</v>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
         <v>366</v>
       </c>
       <c r="D771">
-        <f>LEN(C771)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19078,7 +19078,7 @@
         <v>368</v>
       </c>
       <c r="D772">
-        <f>LEN(C772)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
         <v>386</v>
       </c>
       <c r="D773">
-        <f>LEN(C773)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19108,7 +19108,7 @@
         <v>393</v>
       </c>
       <c r="D774">
-        <f>LEN(C774)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19123,7 +19123,7 @@
         <v>399</v>
       </c>
       <c r="D775">
-        <f>LEN(C775)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19138,7 +19138,7 @@
         <v>409</v>
       </c>
       <c r="D776">
-        <f>LEN(C776)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19153,7 +19153,7 @@
         <v>6</v>
       </c>
       <c r="D777">
-        <f>LEN(C777)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
         <v>23</v>
       </c>
       <c r="D778">
-        <f>LEN(C778)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
         <v>31</v>
       </c>
       <c r="D779">
-        <f>LEN(C779)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19198,7 +19198,7 @@
         <v>40</v>
       </c>
       <c r="D780">
-        <f>LEN(C780)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
         <v>60</v>
       </c>
       <c r="D781">
-        <f>LEN(C781)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19228,7 +19228,7 @@
         <v>136</v>
       </c>
       <c r="D782">
-        <f>LEN(C782)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
         <v>171</v>
       </c>
       <c r="D783">
-        <f>LEN(C783)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19258,7 +19258,7 @@
         <v>202</v>
       </c>
       <c r="D784">
-        <f>LEN(C784)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
         <v>217</v>
       </c>
       <c r="D785">
-        <f>LEN(C785)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19288,7 +19288,7 @@
         <v>221</v>
       </c>
       <c r="D786">
-        <f>LEN(C786)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19303,7 +19303,7 @@
         <v>225</v>
       </c>
       <c r="D787">
-        <f>LEN(C787)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19318,7 +19318,7 @@
         <v>343</v>
       </c>
       <c r="D788">
-        <f>LEN(C788)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19333,7 +19333,7 @@
         <v>366</v>
       </c>
       <c r="D789">
-        <f>LEN(C789)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19348,7 +19348,7 @@
         <v>368</v>
       </c>
       <c r="D790">
-        <f>LEN(C790)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19363,7 +19363,7 @@
         <v>386</v>
       </c>
       <c r="D791">
-        <f>LEN(C791)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19378,7 +19378,7 @@
         <v>393</v>
       </c>
       <c r="D792">
-        <f>LEN(C792)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19393,7 +19393,7 @@
         <v>399</v>
       </c>
       <c r="D793">
-        <f>LEN(C793)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19408,7 +19408,7 @@
         <v>409</v>
       </c>
       <c r="D794">
-        <f>LEN(C794)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19423,7 +19423,7 @@
         <v>446</v>
       </c>
       <c r="D795">
-        <f>LEN(C795)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19438,7 +19438,7 @@
         <v>449</v>
       </c>
       <c r="D796">
-        <f>LEN(C796)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
         <v>446</v>
       </c>
       <c r="D797">
-        <f>LEN(C797)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
         <v>449</v>
       </c>
       <c r="D798">
-        <f>LEN(C798)</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -19483,7 +19483,7 @@
         <v>41</v>
       </c>
       <c r="D799">
-        <f>LEN(C799)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19498,7 +19498,7 @@
         <v>45</v>
       </c>
       <c r="D800">
-        <f>LEN(C800)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
         <v>46</v>
       </c>
       <c r="D801">
-        <f>LEN(C801)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
         <v>55</v>
       </c>
       <c r="D802">
-        <f>LEN(C802)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19543,7 +19543,7 @@
         <v>69</v>
       </c>
       <c r="D803">
-        <f>LEN(C803)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
         <v>74</v>
       </c>
       <c r="D804">
-        <f>LEN(C804)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19573,7 +19573,7 @@
         <v>81</v>
       </c>
       <c r="D805">
-        <f>LEN(C805)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
         <v>85</v>
       </c>
       <c r="D806">
-        <f>LEN(C806)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19603,7 +19603,7 @@
         <v>90</v>
       </c>
       <c r="D807">
-        <f>LEN(C807)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19618,7 +19618,7 @@
         <v>173</v>
       </c>
       <c r="D808">
-        <f>LEN(C808)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
         <v>176</v>
       </c>
       <c r="D809">
-        <f>LEN(C809)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19648,7 +19648,7 @@
         <v>189</v>
       </c>
       <c r="D810">
-        <f>LEN(C810)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19663,7 +19663,7 @@
         <v>190</v>
       </c>
       <c r="D811">
-        <f>LEN(C811)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
         <v>200</v>
       </c>
       <c r="D812">
-        <f>LEN(C812)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
         <v>236</v>
       </c>
       <c r="D813">
-        <f>LEN(C813)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19708,7 +19708,7 @@
         <v>258</v>
       </c>
       <c r="D814">
-        <f>LEN(C814)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19723,7 +19723,7 @@
         <v>261</v>
       </c>
       <c r="D815">
-        <f>LEN(C815)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19738,7 +19738,7 @@
         <v>271</v>
       </c>
       <c r="D816">
-        <f>LEN(C816)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
         <v>307</v>
       </c>
       <c r="D817">
-        <f>LEN(C817)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19768,7 +19768,7 @@
         <v>315</v>
       </c>
       <c r="D818">
-        <f>LEN(C818)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19783,7 +19783,7 @@
         <v>394</v>
       </c>
       <c r="D819">
-        <f>LEN(C819)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19798,7 +19798,7 @@
         <v>404</v>
       </c>
       <c r="D820">
-        <f>LEN(C820)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
         <v>434</v>
       </c>
       <c r="D821">
-        <f>LEN(C821)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
         <v>437</v>
       </c>
       <c r="D822">
-        <f>LEN(C822)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
         <v>41</v>
       </c>
       <c r="D823">
-        <f>LEN(C823)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19858,7 +19858,7 @@
         <v>45</v>
       </c>
       <c r="D824">
-        <f>LEN(C824)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19873,7 +19873,7 @@
         <v>46</v>
       </c>
       <c r="D825">
-        <f>LEN(C825)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19888,7 +19888,7 @@
         <v>55</v>
       </c>
       <c r="D826">
-        <f>LEN(C826)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19903,7 +19903,7 @@
         <v>69</v>
       </c>
       <c r="D827">
-        <f>LEN(C827)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19918,7 +19918,7 @@
         <v>74</v>
       </c>
       <c r="D828">
-        <f>LEN(C828)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
         <v>81</v>
       </c>
       <c r="D829">
-        <f>LEN(C829)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19948,7 +19948,7 @@
         <v>85</v>
       </c>
       <c r="D830">
-        <f>LEN(C830)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19963,7 +19963,7 @@
         <v>90</v>
       </c>
       <c r="D831">
-        <f>LEN(C831)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19978,7 +19978,7 @@
         <v>173</v>
       </c>
       <c r="D832">
-        <f>LEN(C832)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
         <v>176</v>
       </c>
       <c r="D833">
-        <f>LEN(C833)</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
         <v>189</v>
       </c>
       <c r="D834">
-        <f>LEN(C834)</f>
+        <f t="shared" ref="D834:D897" si="13">LEN(C834)</f>
         <v>23</v>
       </c>
     </row>
@@ -20023,7 +20023,7 @@
         <v>190</v>
       </c>
       <c r="D835">
-        <f>LEN(C835)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20038,7 +20038,7 @@
         <v>200</v>
       </c>
       <c r="D836">
-        <f>LEN(C836)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
         <v>236</v>
       </c>
       <c r="D837">
-        <f>LEN(C837)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20068,7 +20068,7 @@
         <v>258</v>
       </c>
       <c r="D838">
-        <f>LEN(C838)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20083,7 +20083,7 @@
         <v>261</v>
       </c>
       <c r="D839">
-        <f>LEN(C839)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
         <v>271</v>
       </c>
       <c r="D840">
-        <f>LEN(C840)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20113,7 +20113,7 @@
         <v>307</v>
       </c>
       <c r="D841">
-        <f>LEN(C841)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20128,7 +20128,7 @@
         <v>315</v>
       </c>
       <c r="D842">
-        <f>LEN(C842)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
         <v>394</v>
       </c>
       <c r="D843">
-        <f>LEN(C843)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
         <v>404</v>
       </c>
       <c r="D844">
-        <f>LEN(C844)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
         <v>434</v>
       </c>
       <c r="D845">
-        <f>LEN(C845)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
         <v>437</v>
       </c>
       <c r="D846">
-        <f>LEN(C846)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -20203,7 +20203,7 @@
         <v>43</v>
       </c>
       <c r="D847">
-        <f>LEN(C847)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20218,7 +20218,7 @@
         <v>99</v>
       </c>
       <c r="D848">
-        <f>LEN(C848)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20233,7 +20233,7 @@
         <v>155</v>
       </c>
       <c r="D849">
-        <f>LEN(C849)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
         <v>177</v>
       </c>
       <c r="D850">
-        <f>LEN(C850)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20263,7 +20263,7 @@
         <v>181</v>
       </c>
       <c r="D851">
-        <f>LEN(C851)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20278,7 +20278,7 @@
         <v>348</v>
       </c>
       <c r="D852">
-        <f>LEN(C852)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20293,7 +20293,7 @@
         <v>397</v>
       </c>
       <c r="D853">
-        <f>LEN(C853)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20308,7 +20308,7 @@
         <v>43</v>
       </c>
       <c r="D854">
-        <f>LEN(C854)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20323,7 +20323,7 @@
         <v>99</v>
       </c>
       <c r="D855">
-        <f>LEN(C855)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
         <v>155</v>
       </c>
       <c r="D856">
-        <f>LEN(C856)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20353,7 +20353,7 @@
         <v>177</v>
       </c>
       <c r="D857">
-        <f>LEN(C857)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20368,7 +20368,7 @@
         <v>181</v>
       </c>
       <c r="D858">
-        <f>LEN(C858)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20383,7 +20383,7 @@
         <v>348</v>
       </c>
       <c r="D859">
-        <f>LEN(C859)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
         <v>397</v>
       </c>
       <c r="D860">
-        <f>LEN(C860)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20413,7 +20413,7 @@
         <v>451</v>
       </c>
       <c r="D861">
-        <f>LEN(C861)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20428,7 +20428,7 @@
         <v>451</v>
       </c>
       <c r="D862">
-        <f>LEN(C862)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
         <v>149</v>
       </c>
       <c r="D863">
-        <f>LEN(C863)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20458,7 +20458,7 @@
         <v>156</v>
       </c>
       <c r="D864">
-        <f>LEN(C864)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
         <v>166</v>
       </c>
       <c r="D865">
-        <f>LEN(C865)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20488,7 +20488,7 @@
         <v>204</v>
       </c>
       <c r="D866">
-        <f>LEN(C866)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20503,7 +20503,7 @@
         <v>310</v>
       </c>
       <c r="D867">
-        <f>LEN(C867)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
         <v>412</v>
       </c>
       <c r="D868">
-        <f>LEN(C868)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
         <v>149</v>
       </c>
       <c r="D869">
-        <f>LEN(C869)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20548,7 +20548,7 @@
         <v>156</v>
       </c>
       <c r="D870">
-        <f>LEN(C870)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20563,7 +20563,7 @@
         <v>166</v>
       </c>
       <c r="D871">
-        <f>LEN(C871)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20578,7 +20578,7 @@
         <v>204</v>
       </c>
       <c r="D872">
-        <f>LEN(C872)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20593,7 +20593,7 @@
         <v>310</v>
       </c>
       <c r="D873">
-        <f>LEN(C873)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20608,7 +20608,7 @@
         <v>412</v>
       </c>
       <c r="D874">
-        <f>LEN(C874)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20623,7 +20623,7 @@
         <v>442</v>
       </c>
       <c r="D875">
-        <f>LEN(C875)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -20638,7 +20638,7 @@
         <v>413</v>
       </c>
       <c r="D876">
-        <f>LEN(C876)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
         <v>413</v>
       </c>
       <c r="D877">
-        <f>LEN(C877)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -20668,7 +20668,7 @@
         <v>445</v>
       </c>
       <c r="D878">
-        <f>LEN(C878)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -20683,7 +20683,7 @@
         <v>445</v>
       </c>
       <c r="D879">
-        <f>LEN(C879)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
         <v>86</v>
       </c>
       <c r="D880">
-        <f>LEN(C880)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
         <v>86</v>
       </c>
       <c r="D881">
-        <f>LEN(C881)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
@@ -20728,7 +20728,7 @@
         <v>455</v>
       </c>
       <c r="D882">
-        <f>LEN(C882)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
         <v>455</v>
       </c>
       <c r="D883">
-        <f>LEN(C883)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
     </row>
@@ -20758,7 +20758,7 @@
         <v>61</v>
       </c>
       <c r="D884">
-        <f>LEN(C884)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
         <v>61</v>
       </c>
       <c r="D885">
-        <f>LEN(C885)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20788,7 +20788,7 @@
         <v>440</v>
       </c>
       <c r="D886">
-        <f>LEN(C886)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20803,7 +20803,7 @@
         <v>444</v>
       </c>
       <c r="D887">
-        <f>LEN(C887)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
         <v>454</v>
       </c>
       <c r="D888">
-        <f>LEN(C888)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
         <v>444</v>
       </c>
       <c r="D889">
-        <f>LEN(C889)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20848,7 +20848,7 @@
         <v>454</v>
       </c>
       <c r="D890">
-        <f>LEN(C890)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20863,7 +20863,7 @@
         <v>459</v>
       </c>
       <c r="D891">
-        <f>LEN(C891)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
         <v>448</v>
       </c>
       <c r="D892">
-        <f>LEN(C892)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
         <v>448</v>
       </c>
       <c r="D893">
-        <f>LEN(C893)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
     </row>
@@ -20908,7 +20908,7 @@
         <v>458</v>
       </c>
       <c r="D894">
-        <f>LEN(C894)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
         <v>414</v>
       </c>
       <c r="D895">
-        <f>LEN(C895)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
         <v>414</v>
       </c>
       <c r="D896">
-        <f>LEN(C896)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
     </row>
@@ -20953,7 +20953,7 @@
         <v>439</v>
       </c>
       <c r="D897">
-        <f>LEN(C897)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
     </row>
@@ -20968,7 +20968,7 @@
         <v>84</v>
       </c>
       <c r="D898">
-        <f>LEN(C898)</f>
+        <f t="shared" ref="D898:D961" si="14">LEN(C898)</f>
         <v>15</v>
       </c>
     </row>
@@ -20983,7 +20983,7 @@
         <v>84</v>
       </c>
       <c r="D899">
-        <f>LEN(C899)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -20998,7 +20998,7 @@
         <v>443</v>
       </c>
       <c r="D900">
-        <f>LEN(C900)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -21013,7 +21013,7 @@
         <v>443</v>
       </c>
       <c r="D901">
-        <f>LEN(C901)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -21028,7 +21028,7 @@
         <v>460</v>
       </c>
       <c r="D902">
-        <f>LEN(C902)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -21043,7 +21043,7 @@
         <v>456</v>
       </c>
       <c r="D903">
-        <f>LEN(C903)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
         <v>456</v>
       </c>
       <c r="D904">
-        <f>LEN(C904)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
@@ -21073,7 +21073,7 @@
         <v>462</v>
       </c>
       <c r="D905">
-        <f>LEN(C905)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
@@ -21088,7 +21088,7 @@
         <v>461</v>
       </c>
       <c r="D906">
-        <f>LEN(C906)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
